--- a/Final report/Schedule Page/Testing Spreadsheet v1.0 OrderSchedulePage.xlsx
+++ b/Final report/Schedule Page/Testing Spreadsheet v1.0 OrderSchedulePage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="16560" windowHeight="6285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -484,9 +484,6 @@
     <t>Schedule_Tconn_6</t>
   </si>
   <si>
-    <t>Schedule_Time_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Even when a message told the user that the date entered was outside the validation for ordering within a week, the confirm button was still usable and functioned correctly. </t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>Highlight 'Later' button, click Confirm button, select 11 March '15, Hour: 13, Minute: 15, select past time</t>
   </si>
   <si>
-    <t>Schedule_Time_2</t>
-  </si>
-  <si>
     <t>Highlight 'Later' button, click Confirm button, select 15 April '15, Hour: 15, Minute: 45</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>Check 'Later' service with different values</t>
   </si>
   <si>
-    <t>Schedule_Time_3</t>
-  </si>
-  <si>
     <t>Message didn't appear to prevent user from ordering outside the validation period, or the button didn't prevent the order being taken. The day was correct, but the time chosen should have been flagged by the website (i.e. 11/03/15 - 16.30; 18/03/15 - 23.30; cut-off should be at 18/03/15 - 16.30)</t>
   </si>
   <si>
@@ -556,9 +547,6 @@
     <t>Highlight 'Later' button, click Confirm button, select 11 March '15, Hour: 18, Minute: 00</t>
   </si>
   <si>
-    <t>Schedule_Time_4</t>
-  </si>
-  <si>
     <t>Validation should have picked up that the user cannot order a pizza when 45 minutes hasn't laped using the later service, as this should not have been allowed on the grounds of being too early.</t>
   </si>
   <si>
@@ -685,27 +673,12 @@
     <t>Add Cheese Pizza and extra toppings incl. onions &amp; peppers to the cart, proceed to order</t>
   </si>
   <si>
-    <t>Schedule_Time_5</t>
-  </si>
-  <si>
     <t>Test times out. Pop up box confirming cart order times out before moving onto the next page test.</t>
   </si>
   <si>
-    <t>Schedule_Time_6</t>
-  </si>
-  <si>
     <t>Select 'Later' service, check date within one week period, hour: 14, Minute: 00, click confirm button, check Order Receipt Page</t>
   </si>
   <si>
-    <t>Schedule_Time_7</t>
-  </si>
-  <si>
-    <t>Schedule_Time_8</t>
-  </si>
-  <si>
-    <t>Schedule_Time_9</t>
-  </si>
-  <si>
     <t>Sch_Tproc_14</t>
   </si>
   <si>
@@ -733,9 +706,6 @@
     <t>Select 'Later' service, check date within one week period, hour: 16, Minute: 45, click confirm button, check Order Receipt Page</t>
   </si>
   <si>
-    <t>Schedule_Time_10</t>
-  </si>
-  <si>
     <t>The time shown for the now collection service is 10 mins over the required posting of just 20 mins.</t>
   </si>
   <si>
@@ -1183,9 +1153,6 @@
     <t>Schedule Order web page opens as intended</t>
   </si>
   <si>
-    <t>Schedule_Time_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Error messages appear to indicate the validation works accordingly, although entering dates for ordering under the 'Later' service shows orders more than a week old will still process through even though this should be prevented </t>
   </si>
   <si>
@@ -1213,9 +1180,6 @@
     <t>Highlight 'Later' button, click Confirm button, select 25 December '15, Hour: 11, Minute: 00</t>
   </si>
   <si>
-    <t>Schedule_Time_12</t>
-  </si>
-  <si>
     <t>Highlight 'Later' button, click Confirm button, select 06 April '15, Hour: 15, Minute: 45</t>
   </si>
   <si>
@@ -1265,6 +1229,42 @@
   </si>
   <si>
     <t>Logo does appear; although a water mark has been left within the logo image</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_1</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_2</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_3</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_4</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_5</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_6</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_7</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_8</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_9</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_10</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_11</t>
+  </si>
+  <si>
+    <t>Schedule_Defect_12</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1698,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -1821,11 +1821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-639485152"/>
-        <c:axId val="-639472640"/>
+        <c:axId val="1929177392"/>
+        <c:axId val="1929180112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-639485152"/>
+        <c:axId val="1929177392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-639472640"/>
+        <c:crossAx val="1929180112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-639472640"/>
+        <c:axId val="1929180112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-639485152"/>
+        <c:crossAx val="1929177392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,8 +2262,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,10 +2292,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -2309,10 +2309,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -2324,10 +2324,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -2341,10 +2341,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2358,10 +2358,10 @@
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -2375,10 +2375,10 @@
         <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2448,13 +2448,13 @@
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
@@ -2518,41 +2518,41 @@
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -2560,13 +2560,13 @@
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
@@ -2611,8 +2611,8 @@
   </sheetPr>
   <dimension ref="A1:Z178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="K37" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>58</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>68</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>60</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>60</v>
@@ -2874,10 +2874,10 @@
     </row>
     <row r="7" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>67</v>
@@ -2901,7 +2901,7 @@
         <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>33</v>
@@ -2914,14 +2914,14 @@
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P7" s="10"/>
       <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>60</v>
@@ -2930,7 +2930,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>76</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>79</v>
@@ -2967,7 +2967,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>76</v>
@@ -2995,16 +2995,16 @@
     </row>
     <row r="10" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>76</v>
@@ -3022,7 +3022,7 @@
         <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
@@ -3035,23 +3035,23 @@
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P10" s="10"/>
       <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:26" ht="114" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>76</v>
@@ -3069,7 +3069,7 @@
         <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>33</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Z11" s="5" t="s">
@@ -3091,16 +3091,16 @@
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>76</v>
@@ -3109,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>24</v>
@@ -3128,16 +3128,16 @@
     </row>
     <row r="13" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>76</v>
@@ -3146,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>33</v>
@@ -3168,23 +3168,23 @@
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>76</v>
@@ -3212,16 +3212,16 @@
     </row>
     <row r="15" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>78</v>
@@ -3239,7 +3239,7 @@
         <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>33</v>
@@ -3252,22 +3252,22 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>78</v>
@@ -3285,7 +3285,7 @@
         <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>33</v>
@@ -3298,13 +3298,13 @@
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
@@ -3313,7 +3313,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>78</v>
@@ -3331,7 +3331,7 @@
         <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -3344,22 +3344,22 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>78</v>
@@ -3377,7 +3377,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>33</v>
@@ -3390,22 +3390,22 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>78</v>
@@ -3423,7 +3423,7 @@
         <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>33</v>
@@ -3436,13 +3436,13 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>62</v>
@@ -3451,7 +3451,7 @@
         <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>81</v>
@@ -3469,7 +3469,7 @@
         <v>66</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>33</v>
@@ -3482,13 +3482,13 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>73</v>
@@ -3497,10 +3497,10 @@
         <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>6</v>
@@ -3527,19 +3527,19 @@
     </row>
     <row r="22" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>11</v>
@@ -3560,8 +3560,7 @@
         <v>53</v>
       </c>
       <c r="U22" s="31">
-        <f>COUNTIF(H2:H107,"*Passed*")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3585,19 +3584,19 @@
     </row>
     <row r="24" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -3628,19 +3627,19 @@
     </row>
     <row r="25" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -3671,19 +3670,19 @@
     </row>
     <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>27</v>
@@ -3698,7 +3697,7 @@
         <v>66</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>33</v>
@@ -3711,25 +3710,25 @@
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>11</v>
@@ -3753,19 +3752,19 @@
     </row>
     <row r="28" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>6</v>
@@ -3789,19 +3788,19 @@
     </row>
     <row r="29" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>6</v>
@@ -3825,19 +3824,19 @@
     </row>
     <row r="30" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>27</v>
@@ -3861,19 +3860,19 @@
     </row>
     <row r="31" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>27</v>
@@ -3897,19 +3896,19 @@
     </row>
     <row r="32" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>27</v>
@@ -3933,19 +3932,19 @@
     </row>
     <row r="33" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>27</v>
@@ -3969,19 +3968,19 @@
     </row>
     <row r="34" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>6</v>
@@ -4005,19 +4004,19 @@
     </row>
     <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>27</v>
@@ -4041,19 +4040,19 @@
     </row>
     <row r="36" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>27</v>
@@ -4077,19 +4076,19 @@
     </row>
     <row r="37" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>27</v>
@@ -4113,19 +4112,19 @@
     </row>
     <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>27</v>
@@ -4149,19 +4148,19 @@
     </row>
     <row r="39" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>27</v>
@@ -4185,19 +4184,19 @@
     </row>
     <row r="40" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>27</v>
@@ -4221,19 +4220,19 @@
     </row>
     <row r="41" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>27</v>
@@ -4257,19 +4256,19 @@
     </row>
     <row r="42" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>27</v>
@@ -4296,16 +4295,16 @@
     </row>
     <row r="43" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>76</v>
@@ -4323,7 +4322,7 @@
         <v>66</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>33</v>
@@ -4336,7 +4335,7 @@
       </c>
       <c r="N43" s="10"/>
       <c r="O43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P43" s="10"/>
       <c r="T43" t="s">
@@ -4349,16 +4348,16 @@
     </row>
     <row r="44" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>76</v>
@@ -4386,7 +4385,7 @@
         <v>57</v>
       </c>
       <c r="U44" s="31">
-        <f>COUNTIF(L2:L67,"*Moderate*")</f>
+        <f>COUNTIF(L2:L201,"*Moderate*")</f>
         <v>1</v>
       </c>
     </row>
@@ -4407,7 +4406,6 @@
         <v>35</v>
       </c>
       <c r="U45" s="31">
-        <f>COUNTIF(L2:L67,"*Major*")</f>
         <v>7</v>
       </c>
     </row>
@@ -4428,7 +4426,7 @@
         <v>36</v>
       </c>
       <c r="U46" s="31">
-        <f>COUNTIF(L2:L67,"*Critical*")</f>
+        <f>COUNTIF(L2:L201,"*Critical*")</f>
         <v>4</v>
       </c>
     </row>
@@ -4449,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="U47" s="31">
-        <f>COUNTIF(L2:L67,"*Cometic*")</f>
+        <f>COUNTIF(L2:L201,"*Cometic*")</f>
         <v>0</v>
       </c>
     </row>
@@ -6337,7 +6335,7 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -6380,19 +6378,19 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="27" t="s">
@@ -6406,19 +6404,19 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -6431,19 +6429,19 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6456,19 +6454,19 @@
     </row>
     <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6481,19 +6479,19 @@
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -6506,19 +6504,19 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6531,19 +6529,19 @@
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6556,19 +6554,19 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6581,19 +6579,19 @@
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -6606,19 +6604,19 @@
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -6631,19 +6629,19 @@
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6656,19 +6654,19 @@
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6681,19 +6679,19 @@
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6706,19 +6704,19 @@
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6731,19 +6729,19 @@
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6756,19 +6754,19 @@
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6781,19 +6779,19 @@
     </row>
     <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6806,19 +6804,19 @@
     </row>
     <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6831,410 +6829,410 @@
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7329,6 +7327,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7442,12 +7446,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7458,6 +7456,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7473,21 +7486,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>

--- a/Final report/Schedule Page/Testing Spreadsheet v1.0 OrderSchedulePage.xlsx
+++ b/Final report/Schedule Page/Testing Spreadsheet v1.0 OrderSchedulePage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\Schedule Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
@@ -1617,7 +1617,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1625,9 +1624,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1644,7 +1641,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1652,9 +1648,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1724,7 +1718,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1821,11 +1814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1929177392"/>
-        <c:axId val="1929180112"/>
+        <c:axId val="-559029744"/>
+        <c:axId val="-559029200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1929177392"/>
+        <c:axId val="-559029744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1929180112"/>
+        <c:crossAx val="-559029200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1929180112"/>
+        <c:axId val="-559029200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1929177392"/>
+        <c:crossAx val="-559029744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,7 +2605,7 @@
   <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K37" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,6 +4399,7 @@
         <v>35</v>
       </c>
       <c r="U45" s="31">
+        <f>+COUNTIF(L2:L100,"*MAJOR*")</f>
         <v>7</v>
       </c>
     </row>
@@ -7333,6 +7327,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -7446,15 +7449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
@@ -7471,6 +7465,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7484,12 +7486,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>